--- a/prep_data/2025_upcoming_scores.xlsx
+++ b/prep_data/2025_upcoming_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,351 +467,351 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12/04/2025</t>
+          <t>12/18/2025</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Los Angeles Rams</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Seattle Seahawks</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>38</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/20/2025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Washington Commanders</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Minnesota Vikings</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>18</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/20/2025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>22</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Seattle Seahawks</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Atlanta Falcons</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>17</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Pittsburgh Steelers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Baltimore Ravens</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>New Orleans Saints</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Tampa Bay Buccaneers</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indianapolis Colts</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Jacksonville Jaguars</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>13</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Carolina Panthers</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>Jacksonville Jaguars</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Los Angeles Rams</t>
+          <t>Atlanta Falcons</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -821,67 +821,127 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12/07/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Las Vegas Raiders</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Houston Texans</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Kansas City Chiefs</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>23</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12/08/2025</t>
+          <t>12/21/2025</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>Pittsburgh Steelers</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>12/21/2025</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Baltimore Ravens</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>12/22/2025</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Indianapolis Colts</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>27</t>
         </is>
       </c>
     </row>

--- a/prep_data/2025_upcoming_scores.xlsx
+++ b/prep_data/2025_upcoming_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -945,6 +945,456 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>12/25/2025</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Dallas Cowboys</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Washington Commanders</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12/25/2025</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Detroit Lions</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Minnesota Vikings</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>12/25/2025</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Denver Broncos</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Kansas City Chiefs</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>12/27/2025</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Houston Texans</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Los Angeles Chargers</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>12/27/2025</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Baltimore Ravens</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Green Bay Packers</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>17</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Seattle Seahawks</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Carolina Panthers</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>17</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Arizona Cardinals</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cincinnati Bengals</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>New Orleans Saints</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tennessee Titans</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>17</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Jacksonville Jaguars</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Indianapolis Colts</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>17</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Tampa Bay Buccaneers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Miami Dolphins</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>17</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>New England Patriots</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>New York Jets</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>17</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Pittsburgh Steelers</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cleveland Browns</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>17</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>New York Giants</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Las Vegas Raiders</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>17</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Philadelphia Eagles</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Buffalo Bills</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>17</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>12/28/2025</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Chicago Bears</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>San Francisco 49ers</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
